--- a/report_binary_wind_tax_incentive_6000.xlsx
+++ b/report_binary_wind_tax_incentive_6000.xlsx
@@ -475,25 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1243.99999438232</v>
+        <v>1243.999326335778</v>
       </c>
       <c r="C2" t="n">
-        <v>1243.999999876995</v>
+        <v>1244.000096501674</v>
       </c>
       <c r="D2" t="n">
-        <v>1243.989138087207</v>
+        <v>1244.000002600076</v>
       </c>
       <c r="E2" t="n">
-        <v>1243.999999803422</v>
+        <v>1243.904428587458</v>
       </c>
       <c r="F2" t="n">
-        <v>1243.999999069787</v>
+        <v>1244.000329624585</v>
       </c>
       <c r="G2" t="n">
-        <v>1243.999995363694</v>
+        <v>1244.00000001085</v>
       </c>
       <c r="H2" t="n">
-        <v>1244.000001766677</v>
+        <v>1243.999989097962</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +501,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1234.999994388696</v>
+        <v>1234.999326294346</v>
       </c>
       <c r="C3" t="n">
-        <v>1234.999999876986</v>
+        <v>1235.000096548728</v>
       </c>
       <c r="D3" t="n">
-        <v>1234.989138048295</v>
+        <v>1235.000002600077</v>
       </c>
       <c r="E3" t="n">
-        <v>1234.99999980345</v>
+        <v>1234.904428587237</v>
       </c>
       <c r="F3" t="n">
-        <v>1234.999999068029</v>
+        <v>1235.000329618373</v>
       </c>
       <c r="G3" t="n">
-        <v>1234.999995362844</v>
+        <v>1235.000000010851</v>
       </c>
       <c r="H3" t="n">
-        <v>1235.000001766194</v>
+        <v>1234.999989097968</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +527,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>880.9999974251198</v>
+        <v>880.9993265803175</v>
       </c>
       <c r="C4" t="n">
-        <v>880.9999998770098</v>
+        <v>881.000096421632</v>
       </c>
       <c r="D4" t="n">
-        <v>880.9891381520748</v>
+        <v>881.0000026000747</v>
       </c>
       <c r="E4" t="n">
-        <v>880.9999998033774</v>
+        <v>880.9044285878288</v>
       </c>
       <c r="F4" t="n">
-        <v>880.9999990727246</v>
+        <v>881.0003296349449</v>
       </c>
       <c r="G4" t="n">
-        <v>880.9999953651075</v>
+        <v>881.0000000108494</v>
       </c>
       <c r="H4" t="n">
-        <v>881.0000017674864</v>
+        <v>880.999989097954</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +553,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684.69999742187</v>
+        <v>684.6993264951662</v>
       </c>
       <c r="C5" t="n">
-        <v>684.6999998769918</v>
+        <v>684.7000965174391</v>
       </c>
       <c r="D5" t="n">
-        <v>684.6891380742354</v>
+        <v>684.7000026000751</v>
       </c>
       <c r="E5" t="n">
-        <v>684.6999998034313</v>
+        <v>684.6044285873861</v>
       </c>
       <c r="F5" t="n">
-        <v>684.6999990692</v>
+        <v>684.7003296225141</v>
       </c>
       <c r="G5" t="n">
-        <v>684.6999953634106</v>
+        <v>684.700000010849</v>
       </c>
       <c r="H5" t="n">
-        <v>684.7000017665166</v>
+        <v>684.6999890979641</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +582,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.868611914055094e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4.255527396580506e-07</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>620.1999990686402</v>
+        <v>620.2003295908466</v>
       </c>
       <c r="G6" t="n">
-        <v>620.199995363128</v>
+        <v>620.2000000108496</v>
       </c>
       <c r="H6" t="n">
-        <v>620.2000017663554</v>
+        <v>620.1999890979666</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +605,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>611.9999961432436</v>
+        <v>611.9993266487509</v>
       </c>
       <c r="C7" t="n">
-        <v>611.9999998849411</v>
+        <v>612.0000963726152</v>
       </c>
       <c r="D7" t="n">
-        <v>464.171815570757</v>
+        <v>612.0000026000737</v>
       </c>
       <c r="E7" t="n">
-        <v>611.9999998020473</v>
+        <v>611.9044285880507</v>
       </c>
       <c r="F7" t="n">
-        <v>611.9999990736751</v>
+        <v>612.0003296411669</v>
       </c>
       <c r="G7" t="n">
-        <v>611.9999953815964</v>
+        <v>612.0000000108492</v>
       </c>
       <c r="H7" t="n">
-        <v>612.0000018057999</v>
+        <v>611.9999890979491</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>252.1999589962884</v>
+        <v>372.1993244836132</v>
       </c>
       <c r="C8" t="n">
-        <v>362.7378615273117</v>
+        <v>372.2000981562506</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>372.2000026001015</v>
       </c>
       <c r="E8" t="n">
-        <v>271.7940548256919</v>
+        <v>372.1044285766104</v>
       </c>
       <c r="F8" t="n">
-        <v>372.1999989885323</v>
+        <v>372.200329324788</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1999953376731</v>
+        <v>372.2000000108503</v>
       </c>
       <c r="H8" t="n">
-        <v>372.2000017068069</v>
+        <v>372.1999890982219</v>
       </c>
     </row>
     <row r="9">
@@ -657,25 +657,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>252.1999583333422</v>
+        <v>372.1993244836132</v>
       </c>
       <c r="C9" t="n">
-        <v>362.7378615273148</v>
+        <v>372.2000981562506</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>372.2000026001015</v>
       </c>
       <c r="E9" t="n">
-        <v>271.7940562489615</v>
+        <v>372.1044285766104</v>
       </c>
       <c r="F9" t="n">
-        <v>372.1999989885321</v>
+        <v>372.200329324788</v>
       </c>
       <c r="G9" t="n">
-        <v>372.1999953376728</v>
+        <v>372.2000000108503</v>
       </c>
       <c r="H9" t="n">
-        <v>372.200001706807</v>
+        <v>372.1999890982219</v>
       </c>
     </row>
     <row r="10">
@@ -683,25 +683,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>243.9993266229265</v>
       </c>
       <c r="C10" t="n">
-        <v>243.9999998686399</v>
+        <v>244.000096372615</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>244.0000026000739</v>
       </c>
       <c r="E10" t="n">
-        <v>243.999999791836</v>
+        <v>243.9044285880496</v>
       </c>
       <c r="F10" t="n">
-        <v>243.99999907442</v>
+        <v>244.0003296411671</v>
       </c>
       <c r="G10" t="n">
-        <v>243.9999953815942</v>
+        <v>244.0000000108494</v>
       </c>
       <c r="H10" t="n">
-        <v>244.0000016295124</v>
+        <v>243.9999890979487</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +709,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>243.4993266229265</v>
       </c>
       <c r="C11" t="n">
-        <v>243.4999998686401</v>
+        <v>243.5000963726149</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>243.5000026000737</v>
       </c>
       <c r="E11" t="n">
-        <v>243.4999997959647</v>
+        <v>243.4044285880497</v>
       </c>
       <c r="F11" t="n">
-        <v>243.4999990748138</v>
+        <v>243.5003296411671</v>
       </c>
       <c r="G11" t="n">
-        <v>243.4999953815941</v>
+        <v>243.5000000108494</v>
       </c>
       <c r="H11" t="n">
-        <v>243.5000016570942</v>
+        <v>243.4999890979489</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +735,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>149.7993265429377</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.800096372615</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>149.8000026000739</v>
       </c>
       <c r="E12" t="n">
-        <v>149.7999998044453</v>
+        <v>149.70442858805</v>
       </c>
       <c r="F12" t="n">
-        <v>149.7999990745098</v>
+        <v>149.8003296411671</v>
       </c>
       <c r="G12" t="n">
-        <v>149.7999953815961</v>
+        <v>149.8000000108494</v>
       </c>
       <c r="H12" t="n">
-        <v>149.8000017077208</v>
+        <v>149.7999890979488</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +761,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.3993265429376</v>
       </c>
       <c r="C13" t="n">
-        <v>144.3999998716126</v>
+        <v>144.4000963726151</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>144.4000026000738</v>
       </c>
       <c r="E13" t="n">
-        <v>2.290210340153918e-07</v>
+        <v>144.30442858805</v>
       </c>
       <c r="F13" t="n">
-        <v>144.399999075208</v>
+        <v>144.4003296411672</v>
       </c>
       <c r="G13" t="n">
-        <v>144.3999953815941</v>
+        <v>144.4000000108495</v>
       </c>
       <c r="H13" t="n">
-        <v>144.4000017026953</v>
+        <v>144.3999890979488</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +787,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>81.99932654293767</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>82.00009637261509</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>82.0000026000738</v>
       </c>
       <c r="E14" t="n">
-        <v>81.9999997844314</v>
+        <v>81.90442858805004</v>
       </c>
       <c r="F14" t="n">
-        <v>81.99999907450976</v>
+        <v>82.00032964116716</v>
       </c>
       <c r="G14" t="n">
-        <v>81.99999538159619</v>
+        <v>82.0000000108495</v>
       </c>
       <c r="H14" t="n">
-        <v>82.00000178999551</v>
+        <v>81.99998909794886</v>
       </c>
     </row>
     <row r="15">
@@ -813,25 +813,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>79.99932654293772</v>
       </c>
       <c r="C15" t="n">
-        <v>79.99999987161266</v>
+        <v>80.00009637261499</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>80.00000260007383</v>
       </c>
       <c r="E15" t="n">
-        <v>79.99999978669472</v>
+        <v>79.90442858804997</v>
       </c>
       <c r="F15" t="n">
-        <v>79.99999907450982</v>
+        <v>80.0003296411671</v>
       </c>
       <c r="G15" t="n">
-        <v>79.99999538159415</v>
+        <v>80.00000001084953</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00000178985093</v>
+        <v>79.99998909794886</v>
       </c>
     </row>
     <row r="16">
@@ -839,25 +839,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>47.89932438561281</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.90009815625045</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.90000260010153</v>
       </c>
       <c r="E16" t="n">
-        <v>2.310309109973523e-07</v>
+        <v>47.80442857661067</v>
       </c>
       <c r="F16" t="n">
-        <v>47.89999898750231</v>
+        <v>47.90032932478775</v>
       </c>
       <c r="G16" t="n">
-        <v>47.89999533767936</v>
+        <v>47.90000001085008</v>
       </c>
       <c r="H16" t="n">
-        <v>47.90000168972318</v>
+        <v>47.89998909822174</v>
       </c>
     </row>
     <row r="17">
@@ -865,25 +865,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>47.49932438561282</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>47.50009815625069</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>47.5000026001015</v>
       </c>
       <c r="E17" t="n">
-        <v>2.298949729048529e-07</v>
+        <v>47.40442857661057</v>
       </c>
       <c r="F17" t="n">
-        <v>47.49999898750229</v>
+        <v>47.50032932478774</v>
       </c>
       <c r="G17" t="n">
-        <v>47.49999533767931</v>
+        <v>47.50000001085009</v>
       </c>
       <c r="H17" t="n">
-        <v>47.50000168972743</v>
+        <v>47.49998909822177</v>
       </c>
     </row>
     <row r="18">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3.927692467652264e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.246232731330004e-07</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.636478232894278e-07</v>
+        <v>0.000138689006451963</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>5.916381199219886e-09</v>
       </c>
       <c r="H18" t="n">
-        <v>9.129940134985852e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -920,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.92606215220663e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.242385177535539e-07</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.565890093323223e-07</v>
+        <v>0.0001384386460681641</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.917597748671994e-09</v>
       </c>
       <c r="H19" t="n">
-        <v>9.093427475045779e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.925930756436961e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.242022847428286e-07</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.567704559132973e-07</v>
+        <v>0.0001384376619310771</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.957011989130777e-09</v>
       </c>
       <c r="H20" t="n">
-        <v>9.090106431327979e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -972,22 +972,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.927688783965804e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.246475118076956e-07</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6.63875012628289e-07</v>
+        <v>0.0001386907754373488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>5.936726661812995e-09</v>
       </c>
       <c r="H21" t="n">
-        <v>9.133801700007801e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.926021860103653e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.242172329098465e-07</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6.564790108627951e-07</v>
+        <v>0.0001384410418097904</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.953676139650198e-09</v>
       </c>
       <c r="H22" t="n">
-        <v>9.091322884484471e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1024,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.926955061674197e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.243174045821112e-07</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.578149902149415e-07</v>
+        <v>0.0001385165514560862</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.905872126731182e-09</v>
       </c>
       <c r="H23" t="n">
-        <v>9.102523211431702e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1050,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3.898314026130983e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.253376336585214e-07</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7.02784865844079e-07</v>
+        <v>0.0001390921138145142</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5.949163517808765e-09</v>
       </c>
       <c r="H24" t="n">
-        <v>9.203394809103099e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1073,25 +1073,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.0006034896162390378</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.877946272064127e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.210449715461074e-07</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8.841022009545647e-07</v>
+        <v>0.0001488252506922779</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.915840470749913e-09</v>
       </c>
       <c r="H25" t="n">
-        <v>5.528539740626183e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.927196313230701e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4.247022353087005e-07</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.661092520130244e-07</v>
+        <v>0.0001387306281326724</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.976204566826225e-09</v>
       </c>
       <c r="H26" t="n">
-        <v>9.140628211941313e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1128,22 +1128,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3.925930756436961e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4.242022847428286e-07</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6.567704559132973e-07</v>
+        <v>0.0001384376619310771</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>5.957011989130777e-09</v>
       </c>
       <c r="H27" t="n">
-        <v>9.090106431327979e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1154,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.925970750427911e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.242156957931521e-07</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.56673345979465e-07</v>
+        <v>0.0001384359678174456</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.947065364248307e-09</v>
       </c>
       <c r="H28" t="n">
-        <v>9.092130315878546e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.926115524549483e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.242547178087949e-07</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.567829248474752e-07</v>
+        <v>0.0001384407990058148</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.942018828459886e-09</v>
       </c>
       <c r="H29" t="n">
-        <v>9.089962879872028e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1206,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3.925930756436961e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>4.242022847428286e-07</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.567704559132973e-07</v>
+        <v>0.0001384376619310771</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5.957011989130777e-09</v>
       </c>
       <c r="H30" t="n">
-        <v>9.090106431327979e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1232,22 +1232,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.925956687942862e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.242238190198927e-07</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.56557321325461e-07</v>
+        <v>0.0001384386852109647</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.971233025111796e-09</v>
       </c>
       <c r="H31" t="n">
-        <v>9.093161426872566e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1258,22 +1258,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.879279592080019e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>4.254553422004328e-07</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.354325566033539e-07</v>
+        <v>0.0001397321365743247</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.939936990104245e-09</v>
       </c>
       <c r="H32" t="n">
-        <v>9.220793042008526e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1281,25 +1281,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>693.7999949402704</v>
+        <v>664.773500647781</v>
       </c>
       <c r="C33" t="n">
-        <v>693.7999998774225</v>
+        <v>693.8000991295901</v>
       </c>
       <c r="D33" t="n">
-        <v>693.7891345689882</v>
+        <v>4.470089505038506e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>693.7999998058699</v>
+        <v>693.7044285672541</v>
       </c>
       <c r="F33" t="n">
-        <v>693.7999989258496</v>
+        <v>693.8003289135818</v>
       </c>
       <c r="G33" t="n">
-        <v>693.7999953044625</v>
+        <v>693.8000000108507</v>
       </c>
       <c r="H33" t="n">
-        <v>693.8000017284442</v>
+        <v>693.7999890977137</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>685.2999958560182</v>
+        <v>0.0001797101282613367</v>
       </c>
       <c r="C34" t="n">
-        <v>685.2999998727491</v>
+        <v>685.3000985977708</v>
       </c>
       <c r="D34" t="n">
-        <v>685.2891345193719</v>
+        <v>4.471059320598269e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>685.2999998171247</v>
+        <v>671.4434120611988</v>
       </c>
       <c r="F34" t="n">
-        <v>685.2999989267219</v>
+        <v>685.3003289247874</v>
       </c>
       <c r="G34" t="n">
-        <v>685.2999953049666</v>
+        <v>685.3000000108499</v>
       </c>
       <c r="H34" t="n">
-        <v>685.3000017286829</v>
+        <v>685.2999890941353</v>
       </c>
     </row>
     <row r="35">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3.861699592956758e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3.919521723191425e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>1.857058650390941e-06</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.837333121783678e-07</v>
+        <v>311.9387687382062</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.281021918309599e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>1.556460004961349e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1359,25 +1359,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>110.9599937727435</v>
+        <v>110.9589658343463</v>
       </c>
       <c r="C36" t="n">
-        <v>110.9600001650668</v>
+        <v>110.9599390027166</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.254139072463662e-07</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>110.9599960765689</v>
+        <v>110.960496798203</v>
       </c>
       <c r="G36" t="n">
-        <v>110.9600020271896</v>
+        <v>110.9600000122424</v>
       </c>
       <c r="H36" t="n">
-        <v>110.9600021046516</v>
+        <v>110.9599834003739</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +1385,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>515.4999947422583</v>
+        <v>115.4993464054892</v>
       </c>
       <c r="C37" t="n">
-        <v>515.4999998759247</v>
+        <v>301.8842809617498</v>
       </c>
       <c r="D37" t="n">
-        <v>515.4891362028322</v>
+        <v>103.0999730252281</v>
       </c>
       <c r="E37" t="n">
-        <v>515.4999998164297</v>
+        <v>266.5900325619196</v>
       </c>
       <c r="F37" t="n">
-        <v>515.4999989269108</v>
+        <v>515.5003294552162</v>
       </c>
       <c r="G37" t="n">
-        <v>515.4999953049669</v>
+        <v>515.5000000108548</v>
       </c>
       <c r="H37" t="n">
-        <v>515.5000018030296</v>
+        <v>515.4999890965501</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +1411,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>507.9999959811578</v>
+        <v>507.9993225152926</v>
       </c>
       <c r="C38" t="n">
-        <v>507.9999998761962</v>
+        <v>508.0000991044445</v>
       </c>
       <c r="D38" t="n">
-        <v>507.98913459441</v>
+        <v>508.0000025956914</v>
       </c>
       <c r="E38" t="n">
-        <v>507.999999805852</v>
+        <v>507.9044285674004</v>
       </c>
       <c r="F38" t="n">
-        <v>507.9999989267865</v>
+        <v>508.0003290673984</v>
       </c>
       <c r="G38" t="n">
-        <v>507.9999953049668</v>
+        <v>508.0000000108506</v>
       </c>
       <c r="H38" t="n">
-        <v>508.0000017286837</v>
+        <v>507.9999890976143</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +1437,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>490.3999971286051</v>
+        <v>490.3993225768824</v>
       </c>
       <c r="C39" t="n">
-        <v>490.3999998761964</v>
+        <v>490.4000988250122</v>
       </c>
       <c r="D39" t="n">
-        <v>490.3891345944104</v>
+        <v>490.4000025956914</v>
       </c>
       <c r="E39" t="n">
-        <v>490.3999998058523</v>
+        <v>490.3044285674007</v>
       </c>
       <c r="F39" t="n">
-        <v>490.3999989267864</v>
+        <v>490.4003290472824</v>
       </c>
       <c r="G39" t="n">
-        <v>490.3999953049668</v>
+        <v>490.4000000108502</v>
       </c>
       <c r="H39" t="n">
-        <v>490.4000017286833</v>
+        <v>490.3999890786058</v>
       </c>
     </row>
     <row r="40">
@@ -1466,22 +1466,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.162302177561968e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.755426988059238e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>2.317128377654433e-07</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>447.8999989256335</v>
+        <v>447.9003289994325</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.621969617017539e-09</v>
       </c>
       <c r="H40" t="n">
-        <v>447.9000019219281</v>
+        <v>447.8999890948983</v>
       </c>
     </row>
     <row r="41">
@@ -1489,25 +1489,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>143.9417907503436</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>186.693118275688</v>
+        <v>54.18018973658724</v>
       </c>
       <c r="D41" t="n">
-        <v>125.8221298464103</v>
+        <v>54.18000505839153</v>
       </c>
       <c r="E41" t="n">
-        <v>180.0601888737588</v>
+        <v>54.17989333263129</v>
       </c>
       <c r="F41" t="n">
-        <v>270.8999984948808</v>
+        <v>270.9003258294743</v>
       </c>
       <c r="G41" t="n">
-        <v>270.4795679948961</v>
+        <v>270.4792552451478</v>
       </c>
       <c r="H41" t="n">
-        <v>270.9000016537331</v>
+        <v>270.8999891010357</v>
       </c>
     </row>
     <row r="42">
@@ -1518,22 +1518,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.888675187435295e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.695866002043764e-07</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.0001452472549693967</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5.95378980450996e-09</v>
       </c>
       <c r="H42" t="n">
-        <v>7.526485935471198e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1541,25 +1541,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>248.6999969563877</v>
+        <v>248.6993264052531</v>
       </c>
       <c r="C43" t="n">
-        <v>248.6999998770492</v>
+        <v>248.7000962036665</v>
       </c>
       <c r="D43" t="n">
-        <v>248.6891383208455</v>
+        <v>248.7000026000719</v>
       </c>
       <c r="E43" t="n">
-        <v>248.6999998032589</v>
+        <v>248.6044285887887</v>
       </c>
       <c r="F43" t="n">
-        <v>248.6999990804201</v>
+        <v>248.7003296619346</v>
       </c>
       <c r="G43" t="n">
-        <v>248.6999953845599</v>
+        <v>248.7000000108495</v>
       </c>
       <c r="H43" t="n">
-        <v>248.7000017696122</v>
+        <v>248.6999890979314</v>
       </c>
     </row>
     <row r="44">
@@ -1567,25 +1567,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>247.7999968753766</v>
+        <v>247.7993263796991</v>
       </c>
       <c r="C44" t="n">
-        <v>247.7999998770491</v>
+        <v>247.8000962036665</v>
       </c>
       <c r="D44" t="n">
-        <v>247.7891383208455</v>
+        <v>247.8000026000721</v>
       </c>
       <c r="E44" t="n">
-        <v>247.7999998032588</v>
+        <v>247.704428588789</v>
       </c>
       <c r="F44" t="n">
-        <v>247.7999990804201</v>
+        <v>247.8003296619347</v>
       </c>
       <c r="G44" t="n">
-        <v>247.79999538456</v>
+        <v>247.8000000108496</v>
       </c>
       <c r="H44" t="n">
-        <v>247.8000017696122</v>
+        <v>247.7999890979313</v>
       </c>
     </row>
     <row r="45">
@@ -1593,25 +1593,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>247.7999970063242</v>
+        <v>247.7993264568561</v>
       </c>
       <c r="C45" t="n">
-        <v>247.7999998770491</v>
+        <v>247.8000962036667</v>
       </c>
       <c r="D45" t="n">
-        <v>247.7891383208455</v>
+        <v>247.8000026000721</v>
       </c>
       <c r="E45" t="n">
-        <v>247.799999803259</v>
+        <v>247.7044285887884</v>
       </c>
       <c r="F45" t="n">
-        <v>247.79999908042</v>
+        <v>247.8003296619346</v>
       </c>
       <c r="G45" t="n">
-        <v>247.79999538456</v>
+        <v>247.8000000108493</v>
       </c>
       <c r="H45" t="n">
-        <v>247.8000017696121</v>
+        <v>247.7999890979311</v>
       </c>
     </row>
     <row r="46">
@@ -1622,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.146516001257395e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>48.96337073584723</v>
+        <v>4.254269141049031e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>48.98002134820845</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>244.89999892322</v>
+        <v>244.9003299352194</v>
       </c>
       <c r="G46" t="n">
-        <v>48.97999249192561</v>
+        <v>48.98000001634595</v>
       </c>
       <c r="H46" t="n">
-        <v>244.9000017696865</v>
+        <v>244.8999890979909</v>
       </c>
     </row>
     <row r="47">
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3.892798441388302e-05</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>4.843543668536695e-07</v>
+        <v>0.0001391702034752372</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>5.945736388965161e-09</v>
       </c>
       <c r="H47" t="n">
-        <v>8.781611615235248e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1674,22 +1674,22 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3.873792009286829e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2.696538650507974e-07</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.0001397047740194949</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>5.932888186305807e-09</v>
       </c>
       <c r="H48" t="n">
-        <v>4.680125623423491e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1697,25 +1697,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>238.2999974305883</v>
+        <v>238.2993212585529</v>
       </c>
       <c r="C49" t="n">
-        <v>238.2999998759575</v>
+        <v>238.3000994119945</v>
       </c>
       <c r="D49" t="n">
-        <v>238.2891335424762</v>
+        <v>218.6226448949234</v>
       </c>
       <c r="E49" t="n">
-        <v>238.2999998065758</v>
+        <v>238.2044285612927</v>
       </c>
       <c r="F49" t="n">
-        <v>238.2999988891836</v>
+        <v>238.3003288578376</v>
       </c>
       <c r="G49" t="n">
-        <v>238.2999952845082</v>
+        <v>238.3000000108509</v>
       </c>
       <c r="H49" t="n">
-        <v>238.3000017189992</v>
+        <v>238.2999890978746</v>
       </c>
     </row>
     <row r="50">
@@ -1726,22 +1726,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>3.892878742075809e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2.340927234941451e-07</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>212.9391577265116</v>
+        <v>0.0001424295492487639</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>5.963896454642129e-09</v>
       </c>
       <c r="H50" t="n">
-        <v>236.4000015227272</v>
+        <v>236.3999890991822</v>
       </c>
     </row>
     <row r="51">
@@ -1749,25 +1749,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.6999937991319</v>
+        <v>30.69896087073984</v>
       </c>
       <c r="C51" t="n">
-        <v>9.286232762305896e-08</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>30.68370832368616</v>
+        <v>30.69997391386308</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.0001405442890724228</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>5.951625717052516e-09</v>
       </c>
       <c r="H51" t="n">
-        <v>30.93988565024531</v>
+        <v>30.94055846135282</v>
       </c>
     </row>
     <row r="52">
@@ -1778,22 +1778,22 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1.727859318221879e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2.838753709339059e-07</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>99.01670862538231</v>
+        <v>0.0001397814128928539</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>5.949598929316062e-09</v>
       </c>
       <c r="H52" t="n">
-        <v>3.095274749655898e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1804,22 +1804,22 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3.896267400662999e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>6.176571649307006e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>3.707871866084263e-06</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>7.260228624425913e-07</v>
+        <v>0.0001389781072986704</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>5.953820995023186e-09</v>
       </c>
       <c r="H53" t="n">
-        <v>8.865608527915693e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1830,22 +1830,22 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>3.913892524303263e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>3.860207374126783e-06</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>7.049930495613753e-07</v>
+        <v>0.0001389137238184787</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>5.979495357403697e-09</v>
       </c>
       <c r="H54" t="n">
-        <v>8.726606928760992e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1856,22 +1856,22 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3.923538737109291e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>3.973247593540181e-06</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>6.358947619696751e-07</v>
+        <v>0.0001388083038375863</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>5.938100611206733e-09</v>
       </c>
       <c r="H55" t="n">
-        <v>8.776290807716112e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1882,22 +1882,22 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3.914198572437906e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>3.875824809709854e-06</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>7.158458341259331e-07</v>
+        <v>0.0001389653461183788</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>5.979202345784043e-09</v>
       </c>
       <c r="H56" t="n">
-        <v>8.864047055053815e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1908,22 +1908,22 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3.88460505766392e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2.712033662240414e-07</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>8.263007840938166e-07</v>
+        <v>0.0001391446997660964</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>5.954735569840617e-09</v>
       </c>
       <c r="H57" t="n">
-        <v>8.957679948806359e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1934,22 +1934,22 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3.898167700886676e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1.781858596001129e-07</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>7.830270216713059e-07</v>
+        <v>0.000138824714029559</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>5.972004556618639e-09</v>
       </c>
       <c r="H58" t="n">
-        <v>7.515651820505705e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1957,25 +1957,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.79999385229544</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3.979480229414191e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>4.252559450020349e-07</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>8.333996154851078e-07</v>
+        <v>0.0001390369286501693</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>5.984066578877657e-09</v>
       </c>
       <c r="H59" t="n">
-        <v>9.191629753630223e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1986,22 +1986,22 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>3.94112257136365e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>3.36306318654081e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>5.385602604789775e-08</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>6.912778683746504e-07</v>
+        <v>0.000138733062103631</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>5.960713730188422e-09</v>
       </c>
       <c r="H60" t="n">
-        <v>8.796061591070474e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2012,22 +2012,22 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3.94115859659348e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4.323507657615102e-07</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>6.911323643620953e-07</v>
+        <v>0.0001387331461035478</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>5.974142023885444e-09</v>
       </c>
       <c r="H61" t="n">
-        <v>8.743530604943889e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2038,22 +2038,22 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3.917901300184541e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>3.362161351181283e-07</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>6.911323643620953e-07</v>
+        <v>0.0001387331461035478</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>5.935974894144178e-09</v>
       </c>
       <c r="H62" t="n">
-        <v>8.817698362229975e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2064,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3.917919208117578e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4.32373798305349e-07</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>8.40060269631307e-07</v>
+        <v>0.0001387329291405886</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>5.995024776586181e-09</v>
       </c>
       <c r="H63" t="n">
-        <v>8.786905803697835e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2090,22 +2090,22 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3.890670179154274e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4.254039630892788e-07</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>7.101569548789001e-07</v>
+        <v>0.0001391327674610274</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>5.951740496207301e-09</v>
       </c>
       <c r="H64" t="n">
-        <v>9.214617064175395e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2116,22 +2116,22 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>3.887291213575646e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4.253858249514382e-07</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>7.128440056491031e-07</v>
+        <v>0.0001391486225285844</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>5.910270331549315e-09</v>
       </c>
       <c r="H65" t="n">
-        <v>9.210633489079363e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2142,22 +2142,22 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3.887825416250552e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4.25387481995082e-07</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>7.124163507749421e-07</v>
+        <v>0.0001391461042459656</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>5.960287430939251e-09</v>
       </c>
       <c r="H66" t="n">
-        <v>9.213365317402428e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2168,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>3.92613612840142e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4.24253101490945e-07</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>6.565222265218665e-07</v>
+        <v>0.0001384477649845199</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>5.957361315432761e-09</v>
       </c>
       <c r="H67" t="n">
-        <v>9.096638617461551e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2194,22 +2194,22 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3.905788328064138e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>4.252492418630988e-07</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>6.957360803095829e-07</v>
+        <v>0.000139046227462554</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>5.925898995644863e-09</v>
       </c>
       <c r="H68" t="n">
-        <v>9.197604587981913e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>3.917912849758737e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>4.25211049618638e-07</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>6.92368948632723e-07</v>
+        <v>0.0001390294823155009</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>5.955341196797525e-09</v>
       </c>
       <c r="H69" t="n">
-        <v>9.187427932551364e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2246,22 +2246,22 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>4.093861917338324e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4.251807082509582e-07</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>8.002227486834505e-07</v>
+        <v>0.000139017911860771</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>5.961268869263178e-09</v>
       </c>
       <c r="H70" t="n">
-        <v>9.255855908835401e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2272,22 +2272,22 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>4.093911951159942e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>4.25170603351079e-07</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>8.968971425541207e-07</v>
+        <v>0.0001390217546082291</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>5.95489524151421e-09</v>
       </c>
       <c r="H71" t="n">
-        <v>8.993001152720995e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2298,22 +2298,22 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>3.966375435374764e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4.240703095302366e-07</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>7.300231936253004e-07</v>
+        <v>0.0001390152741299711</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>5.941377220832652e-09</v>
       </c>
       <c r="H72" t="n">
-        <v>9.189761731395133e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>4.10768892581619e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>4.251947236698848e-07</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>8.867351510633355e-07</v>
+        <v>0.0001390342779679975</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>5.962856685978724e-09</v>
       </c>
       <c r="H73" t="n">
-        <v>9.191255199384496e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2350,22 +2350,22 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3.905966097000185e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>4.251738436694302e-07</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>6.962365453055809e-07</v>
+        <v>0.000139046366871293</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>6.014045040666027e-09</v>
       </c>
       <c r="H74" t="n">
-        <v>9.199812619497644e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2376,22 +2376,22 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3.903993417407682e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>4.252481422339601e-07</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>6.97615154563077e-07</v>
+        <v>0.0001390576917918374</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>5.986299062991376e-09</v>
       </c>
       <c r="H75" t="n">
-        <v>9.19699391808959e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2402,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3.907522197262158e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>4.252097055579975e-07</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>6.945661919604985e-07</v>
+        <v>0.0001390347842735882</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>5.959684119649629e-09</v>
       </c>
       <c r="H76" t="n">
-        <v>9.190422495269238e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2428,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3.910460875183356e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4.251795550177023e-07</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>5.999488175393261e-07</v>
+        <v>0.0001389905939015001</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>5.933902456086541e-09</v>
       </c>
       <c r="H77" t="n">
-        <v>8.990615785744901e-07</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
